--- a/medicine/Enfance/Jennifer,_l'enfer_!/Jennifer,_l'enfer_!.xlsx
+++ b/medicine/Enfance/Jennifer,_l'enfer_!/Jennifer,_l'enfer_!.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Jennifer,_l%27enfer_!</t>
+          <t>Jennifer,_l'enfer_!</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Jennifer, l'enfer ! est un roman pour la jeunesse de Fanny Joly paru pour la première fois dans le magazine Je Bouquine no 120 en février 1994 avec de nombreuses illustrations de François Avril.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Jennifer,_l%27enfer_!</t>
+          <t>Jennifer,_l'enfer_!</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,9 +525,11 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Marion, nulle en anglais (c'est la prof qui le dit… et qui l'écrit sur son bulletin[1] !), essayant d'apprendre ses verbes irréguliers, se plaint du saxophone de son frère Charles. M. Girardon, le père des deux adolescents, propose alors que sa famille accueille Jennifer, la fille de son patron anglais, pour des vacances en France qui aideront Marion à élever son propre niveau en langue étrangère.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Marion, nulle en anglais (c'est la prof qui le dit… et qui l'écrit sur son bulletin !), essayant d'apprendre ses verbes irréguliers, se plaint du saxophone de son frère Charles. M. Girardon, le père des deux adolescents, propose alors que sa famille accueille Jennifer, la fille de son patron anglais, pour des vacances en France qui aideront Marion à élever son propre niveau en langue étrangère.
 Lorsque Jennifer arrive, les enfants Girardon n'ont qu'une idée en tête : la faire partir le plus vite possible. Mais l'invitée trouve tout formidable, y compris les pires corvées. Elle risque donc de leur faire vivre un enfer…
 </t>
         </is>
